--- a/Kaplan_Automation/TestData/TC001_LoginandLogout.xlsx
+++ b/Kaplan_Automation/TestData/TC001_LoginandLogout.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -405,7 +406,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +424,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -441,6 +442,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kaplan_Automation/TestData/TC001_LoginandLogout.xlsx
+++ b/Kaplan_Automation/TestData/TC001_LoginandLogout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4665"/>
+    <workbookView xWindow="4680" yWindow="3675" windowWidth="10395" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
